--- a/projects/housecalnsga.xlsx
+++ b/projects/housecalnsga.xlsx
@@ -10,10 +10,12 @@
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
     <sheet name="Setup" sheetId="7" r:id="rId2"/>
     <sheet name="Variables" sheetId="2" r:id="rId3"/>
-    <sheet name="BCL Measure Data" sheetId="10" r:id="rId4"/>
-    <sheet name="Lookups" sheetId="11" r:id="rId5"/>
+    <sheet name="Outputs" sheetId="12" r:id="rId4"/>
+    <sheet name="BCL Measure Data" sheetId="10" r:id="rId5"/>
+    <sheet name="Lookups" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!$A$2:$W$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$W$15</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="525">
   <si>
     <t>type</t>
   </si>
@@ -1507,13 +1509,100 @@
     <t>cop</t>
   </si>
   <si>
-    <t>nsga_nrelcal</t>
-  </si>
-  <si>
     <t>housecal</t>
   </si>
   <si>
     <t>Generations</t>
+  </si>
+  <si>
+    <t>mprob</t>
+  </si>
+  <si>
+    <t>cprob</t>
+  </si>
+  <si>
+    <t>MuDistIdx</t>
+  </si>
+  <si>
+    <t>XoverDistIdx</t>
+  </si>
+  <si>
+    <t>Variable Display Name</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>objective function</t>
+  </si>
+  <si>
+    <t>objective function target</t>
+  </si>
+  <si>
+    <t>true/false</t>
+  </si>
+  <si>
+    <t>(double)</t>
+  </si>
+  <si>
+    <t>Heating Natural Gas</t>
+  </si>
+  <si>
+    <t>heating_natural_gas</t>
+  </si>
+  <si>
+    <t>MJ/m2</t>
+  </si>
+  <si>
+    <t>Cooling Electricity</t>
+  </si>
+  <si>
+    <t>MJ/m3</t>
+  </si>
+  <si>
+    <t>Interior Equipment Electricity</t>
+  </si>
+  <si>
+    <t>MJ/m4</t>
+  </si>
+  <si>
+    <t>Fans Electricity</t>
+  </si>
+  <si>
+    <t>fans_electricity</t>
+  </si>
+  <si>
+    <t>MJ/m5</t>
+  </si>
+  <si>
+    <t>Allow Multiple Jobs</t>
+  </si>
+  <si>
+    <t>Use Server As Worker</t>
+  </si>
+  <si>
+    <t>Simulate Data Point Filename</t>
+  </si>
+  <si>
+    <t>simulate_data_point.rb</t>
+  </si>
+  <si>
+    <t>Run Data Point Filename</t>
+  </si>
+  <si>
+    <t>run_openstudio_workflow_monthly.rb</t>
+  </si>
+  <si>
+    <t>cooling_electricity</t>
+  </si>
+  <si>
+    <t>interior_equipment_electricity</t>
+  </si>
+  <si>
+    <t>nsga_nrel</t>
   </si>
 </sst>
 </file>
@@ -2915,7 +3004,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2976,6 +3065,9 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4602,16 +4694,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.88671875" style="3" customWidth="1"/>
     <col min="3" max="3" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" bestFit="1" customWidth="1"/>
@@ -4723,7 +4815,7 @@
         <v>45</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>473</v>
@@ -4745,128 +4837,195 @@
         <v>472</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="14" t="s">
-        <v>478</v>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B13" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B14" s="28" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>474</v>
+        <v>518</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="14" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="14" t="s">
         <v>478</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="25">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B20" s="25">
-        <v>15</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="14"/>
+        <v>474</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="14" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B24" s="25">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B25" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B26" s="25">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B27" s="25">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B30" s="25" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+    <row r="32" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B32" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C32" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D32" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E32" s="14" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="33" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B33" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D33" s="24" t="s">
         <v>485</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+    <row r="35" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B35" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C35" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="14"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4884,7 +5043,7 @@
           <x14:formula1>
             <xm:f>Lookups!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B18</xm:sqref>
+          <xm:sqref>B22</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4941,14 +5100,14 @@
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
     </row>
     <row r="2" spans="1:22" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -6027,6 +6186,595 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V43"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="1"/>
+    <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="5"/>
+    <col min="10" max="15" width="11.44140625" style="1"/>
+    <col min="16" max="16" width="46.109375" style="1" customWidth="1"/>
+    <col min="17" max="19" width="11.44140625" style="1"/>
+    <col min="20" max="20" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="11.44140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+    </row>
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:22" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>506</v>
+      </c>
+      <c r="B4" t="s">
+        <v>507</v>
+      </c>
+      <c r="C4" t="s">
+        <v>508</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>462.1635</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B5" t="s">
+        <v>522</v>
+      </c>
+      <c r="C5" t="s">
+        <v>510</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>84.162019999999998</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>511</v>
+      </c>
+      <c r="B6" t="s">
+        <v>523</v>
+      </c>
+      <c r="C6" t="s">
+        <v>512</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>121.99850000000001</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>513</v>
+      </c>
+      <c r="B7" t="s">
+        <v>514</v>
+      </c>
+      <c r="C7" t="s">
+        <v>515</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>87.921419999999998</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9" s="15"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="19"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="M36" s="3"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="Q1:V1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I327"/>
   <sheetViews>
@@ -13391,7 +14139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>

--- a/projects/housecalnsga.xlsx
+++ b/projects/housecalnsga.xlsx
@@ -4696,8 +4696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6191,7 +6191,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6343,7 +6343,7 @@
         <v>512</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>121.99850000000001</v>
@@ -6369,7 +6369,7 @@
         <v>515</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>87.921419999999998</v>
